--- a/data/Inventur_Granulat.xlsx
+++ b/data/Inventur_Granulat.xlsx
@@ -462,55 +462,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02.12.2025 16:06:20</t>
+          <t>02.12.2025 16:06:29</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>0618278503</t>
+          <t>0618439867</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20001243</t>
+          <t>20001189</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>WANTHANE WHT-1195</t>
+          <t>ASACLEAN NEW M REINIGUNGSGRANULAT PWE</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>720</v>
+        <v>268</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02.12.2025 16:06:29</t>
+          <t>02.12.2025 16:06:38</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>0618439867</t>
+          <t>0618485895</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20001189</t>
+          <t>20001182</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ASACLEAN NEW M REINIGUNGSGRANULAT PWE</t>
+          <t>VESTAMID E55 S3</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>268</v>
+        <v>160</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -520,58 +520,58 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02.12.2025 16:06:38</t>
+          <t>02.12.2025 16:08:42</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>0618485895</t>
+          <t>0618512998</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20001182</t>
+          <t>20001212</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VESTAMID E55 S3</t>
+          <t>ELASTOLLAN 1185 A10 FC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>02.12.2025 16:08:42</t>
+          <t>03.12.2025 16:53:15</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>0618512998</t>
+          <t>0618278503</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20001212</t>
+          <t>20001243</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELASTOLLAN 1185 A10 FC</t>
+          <t>WANTHANE WHT-1195</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>380</v>
+        <v>720</v>
       </c>
       <c r="F5" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -586,7 +586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,6 +631,37 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>03.12.2025 16:53:50</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>55556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>44</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
